--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>test-600-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1281762638356951</v>
+      </c>
+      <c r="C9" t="n">
+        <v>599</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SelfPlay_Mixed_R11  V4-3600-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7975613116555744</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3599</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SelfPlay_L1-4800-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.284873390992483</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4799</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SelfPlay_L1-4800-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4805091008212831</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4799</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SelfPlay_Mixed12-7700-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.032957868443595</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7699</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SelfPlay_L2-10100-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.891210648020109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10099</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SelfPlay_L2-11400-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.991316357784801</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11399</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SelfPlay_L2-11400-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10.64391095240911</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11399</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SelfPlay_L2-11400-TU-200-BS-128</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.863752211332321</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11399</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">TRAINING_SESSION</t>
   </si>
@@ -70,10 +70,25 @@
     <t xml:space="preserve">MIXED1</t>
   </si>
   <si>
-    <t xml:space="preserve">SelfPlay_Mixed - MIXED1-200-TU-500-BS-128-at-2025-09-11 22-37-27</t>
-  </si>
-  <si>
     <t xml:space="preserve">RANDOM X DQN model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XI DQN model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XVI</t>
   </si>
 </sst>
 </file>
@@ -167,16 +182,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,290 +386,408 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
         <v>0.1425249538819</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.931</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.911472434070375</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="0" t="n">
         <v>1901</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>0.783</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
         <v>0.099</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
         <v>0.075</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>0.906629033486048</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="0" t="n">
         <v>1801</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="0" t="n">
         <v>0.793</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="0" t="n">
         <v>0.129</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="0" t="n">
         <v>0.264</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="0" t="n">
         <v>0.979189858900176</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="0" t="n">
         <v>1901</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="0" t="n">
         <v>0.808</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="0" t="n">
         <v>0.228</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
         <v>0.019</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="0" t="n">
         <v>1.96708211137189</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="0" t="n">
         <v>3301</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="0" t="n">
         <v>0.264</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="0" t="n">
         <v>1.78257733391391</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="0" t="n">
         <v>1601</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="0" t="n">
         <v>0.788</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="0" t="n">
         <v>0.019</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="0" t="n">
         <v>3.20553325050407</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="0" t="n">
         <v>2801</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="0" t="n">
         <v>0.793</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0.019</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="0" t="n">
         <v>4.32022451572948</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="0" t="n">
         <v>3601</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="0" t="n">
         <v>0.754</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="0" t="n">
         <v>0.267</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="0" t="n">
         <v>0.245</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="0" t="n">
         <v>4.46344597611162</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="0" t="n">
         <v>3601</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="0" t="n">
         <v>0.709</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="0" t="n">
         <v>0.238</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="0" t="n">
         <v>0.038</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0.273055971198612</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="B11" s="0" t="n">
+        <v>0.634320185581843</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.671578823460473</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.545854379402267</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>0.719</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.634320185581843</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="E13" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.13106164971987</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2.34067585594124</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2.43111225909657</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4.11871260497305</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -386,12 +386,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,14 +785,6 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TRAINING_SESSION</t>
   </si>
@@ -40,43 +40,7 @@
     <t>Lookahead-4</t>
   </si>
   <si>
-    <t>MIXED I</t>
-  </si>
-  <si>
-    <t>MIXED III</t>
-  </si>
-  <si>
-    <t>MIXED VIII</t>
-  </si>
-  <si>
-    <t>WHAT</t>
-  </si>
-  <si>
-    <t>L2 II</t>
-  </si>
-  <si>
-    <t>RANDOM XI</t>
-  </si>
-  <si>
-    <t>LA2 I</t>
-  </si>
-  <si>
-    <t>LA1 II</t>
-  </si>
-  <si>
-    <t>LA1 III</t>
-  </si>
-  <si>
-    <t>LA1 IV</t>
-  </si>
-  <si>
-    <t>L2_Intro - LA1 IV-700-TU-500-BS-128-at-2025-10-12 17-04-16</t>
-  </si>
-  <si>
-    <t>L2_Intro - LA1 IV-1000-TU-500-BS-128-at-2025-10-12 19-25-57</t>
-  </si>
-  <si>
-    <t>L2_Continue - LA1 IV-1500-TU-500-BS-128-at-2025-10-12 21-59-26</t>
+    <t>Random_Intro - LA1 IV-500-TU-500-BS-128-at-2025-10-13 10-20-19</t>
   </si>
 </sst>
 </file>
@@ -434,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,321 +435,24 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.662791727979978</v>
+        <v>0.616134121550454</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>0.719</v>
+        <v>0.842</v>
       </c>
       <c r="E2">
-        <v>0.356</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.376907212204403</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3">
-        <v>0.803</v>
-      </c>
-      <c r="E3">
-        <v>0.178</v>
-      </c>
-      <c r="F3">
-        <v>0.321</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.763100360830625</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4">
-        <v>0.773</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.302</v>
-      </c>
-      <c r="G4">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>6.52510243839688</v>
-      </c>
-      <c r="C5">
-        <v>2300</v>
-      </c>
-      <c r="D5">
-        <v>0.803</v>
-      </c>
-      <c r="E5">
-        <v>0.05</v>
-      </c>
-      <c r="F5">
-        <v>0.509</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>8.00664547794395</v>
-      </c>
-      <c r="C6">
-        <v>1700</v>
-      </c>
-      <c r="D6">
-        <v>0.793</v>
-      </c>
-      <c r="E6">
-        <v>0.089</v>
-      </c>
-      <c r="F6">
-        <v>0.283</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>14.0789917039209</v>
-      </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
-      <c r="D7">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.02</v>
-      </c>
-      <c r="F7">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>10.805299066835</v>
-      </c>
-      <c r="C8">
-        <v>2200</v>
-      </c>
-      <c r="D8">
-        <v>0.734</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.528</v>
-      </c>
-      <c r="G8">
-        <v>0.091</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>8.348969557881359</v>
-      </c>
-      <c r="C9">
-        <v>1700</v>
-      </c>
-      <c r="D9">
-        <v>0.833</v>
-      </c>
-      <c r="E9">
-        <v>0.317</v>
-      </c>
-      <c r="F9">
-        <v>0.075</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1.10477217210664</v>
-      </c>
-      <c r="C10">
-        <v>700</v>
-      </c>
-      <c r="D10">
-        <v>0.901</v>
-      </c>
-      <c r="E10">
-        <v>0.168</v>
-      </c>
-      <c r="F10">
-        <v>0.019</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1.07224083224932</v>
-      </c>
-      <c r="C11">
-        <v>700</v>
-      </c>
-      <c r="D11">
-        <v>0.837</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.094</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>1.084089040292634</v>
-      </c>
-      <c r="C12">
-        <v>700</v>
-      </c>
-      <c r="D12">
-        <v>0.852</v>
-      </c>
-      <c r="E12">
-        <v>0.248</v>
-      </c>
-      <c r="F12">
-        <v>0.132</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>1.742297060622109</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13">
-        <v>0.837</v>
-      </c>
-      <c r="E13">
-        <v>0.089</v>
-      </c>
-      <c r="F13">
-        <v>0.038</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>2.935342920422554</v>
-      </c>
-      <c r="C14">
-        <v>1500</v>
-      </c>
-      <c r="D14">
-        <v>0.882</v>
-      </c>
-      <c r="E14">
-        <v>0.178</v>
-      </c>
-      <c r="F14">
-        <v>0.113</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">TRAINING_SESSION</t>
   </si>
@@ -50,6 +50,63 @@
   </si>
   <si>
     <t xml:space="preserve">EVAL - RANDOM I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - DISTILLED RANDOM VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - DISTILLED RANDOM VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - DISTILLED RANDOM VIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - DISTILLED RANDOM IX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM XI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XIII SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM XIII SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM XIII NOSEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM XIII NOSEED--at-2025-10-21 16-18-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM BASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - RANDOM BASE</t>
   </si>
 </sst>
 </file>
@@ -344,15 +401,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,6 +490,502 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0105836459000905</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.902090706162983</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0102538482348124</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.680825748907195</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.00967855075995127</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.00981223755412632</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.00981421967347463</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.00971434427632226</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.00962562839190165</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.09012276450793</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.00929875155289968</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.809722487396664</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.00959739373789893</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1.02171865820885</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.00938550432523092</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1.01655290398333</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.00975112835566203</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7.27882550504473</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.00868049535486433</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Code/Jupiter/Connect4/DQN training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/DQN training_sessions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">TRAINING_SESSION</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t xml:space="preserve">EVAL - RANDOM IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5 (BS128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL - DISTILLED RANDOM V--at-2025-10-28 12-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS6(T0.0045 maxseed 0.375) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS6(T0.0045 maxseed 0.40, E0.45) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS6(T0.0040 maxseed 0.50, E0.50)</t>
   </si>
 </sst>
 </file>
@@ -374,15 +389,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +748,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.4618828813235</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0186062584320704</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.47847183346748</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1.21558702965577</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1.27457022090753</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
